--- a/unitTest.xlsx
+++ b/unitTest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Expected Output</t>
   </si>
@@ -41,21 +41,9 @@
     <t>Functional Requirement</t>
   </si>
   <si>
-    <t>The user can login/register in the app to write or rate a review.</t>
-  </si>
-  <si>
-    <t>Users shall be able to click a thumbs up or down on reviews that they find to be helpful.</t>
-  </si>
-  <si>
-    <t>Users shall be able to search for any movies by title, movie title in alphabetical order, release date, or genre.</t>
-  </si>
-  <si>
     <t>The system should show movies that include an overview with descriptions such as the main casts, directors, genres, trailers, and release dates.</t>
   </si>
   <si>
-    <t>The should be able tp login/register in the app to write or rate a review.</t>
-  </si>
-  <si>
     <t>Users will be able to rate movies under their login account from 1-5 stars</t>
   </si>
   <si>
@@ -71,22 +59,61 @@
     <t>Users are able to submit a review on the movie of their choice.</t>
   </si>
   <si>
-    <t>Users are able to click a thumbs up or down on reviews that they find to be helpful.</t>
-  </si>
-  <si>
-    <t>Users are unable to thumbs up or thumbs down on reviews.</t>
-  </si>
-  <si>
     <t>fail</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>Users are able to search for any movies by title, movie title in alphabetical order, release date, or genre.</t>
-  </si>
-  <si>
     <t>The user is able to see the movies that include an overview with descriptions such as the main casts, directors, genres, trailers, and release dates.</t>
+  </si>
+  <si>
+    <t>The user is able to see the movies that include an overview with descriptions such as the directors, genres, trailers, and release dates. The case is only shown if english based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should be able to logout of their account once done for security reasons. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users are able to logout of their accounts. </t>
+  </si>
+  <si>
+    <t>Users should be able to pick a unique username through interactive buttoms.</t>
+  </si>
+  <si>
+    <t>Users are able to create custom usernames using the respective login buttons.</t>
+  </si>
+  <si>
+    <t>Homepage should offer to register for a new account or login to a previous aaccount or search for a movie as a guest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user can login or register for a new account or search a movie on the home page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to login to their previously made account using their username and password on the login screen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is able to login to there respective account using the login screen. </t>
+  </si>
+  <si>
+    <t>Users shall be able to search for any movies by title, movie title in alphabetical order.</t>
+  </si>
+  <si>
+    <t>Users are able to search for any movies by title, movie title in alphabetical order.</t>
+  </si>
+  <si>
+    <t>Users are able to search for any movies by title, movie title in alphabetical order</t>
+  </si>
+  <si>
+    <t>User shall be able to search for movies by genre.</t>
+  </si>
+  <si>
+    <t>From the search movie screen users are able to search for movies by genre using their respective buttons.</t>
+  </si>
+  <si>
+    <t>The system should show suggested movies based on the movies they have reviewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users are able to see and clcik on suggested movies generated by the app. </t>
   </si>
 </sst>
 </file>
@@ -148,39 +175,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -189,12 +187,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -204,22 +198,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -536,138 +524,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="79.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="1" max="4" width="30.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="25.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>18</v>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
